--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dominik/Documents/Schule/Hochschule/IT7/DT/git/DT_WS1718_02_StarCar/Dokumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" tabRatio="933"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16800" tabRatio="933" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Dezember 2017" sheetId="8" r:id="rId4"/>
     <sheet name="Januar 2018" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Tag</t>
   </si>
@@ -107,11 +107,20 @@
   <si>
     <t>Florian Boemmel</t>
   </si>
+  <si>
+    <t>Recherche Serielle Kommunikation PI/Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste Implementierung Serielle Kommunikation PI/Arduino </t>
+  </si>
+  <si>
+    <t>Treffen mit Robert für Anforderungen der Kommunikation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
@@ -532,235 +541,235 @@
     </xf>
   </cellXfs>
   <cellStyles count="229">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="47">
     <dxf>
@@ -1239,6 +1248,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1564,21 +1576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1596,15 +1608,15 @@
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
@@ -1615,33 +1627,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>43009</v>
       </c>
       <c r="B7" s="2">
         <f>'Oktober 2017'!G34</f>
-        <v>1.5</v>
+        <v>13.766666666666669</v>
       </c>
       <c r="C7">
         <f>'Oktober 2017'!C33</f>
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>43040</v>
       </c>
       <c r="B8" s="2">
         <f>'November 2017'!G34</f>
-        <v>0</v>
+        <v>7.0500000000000016</v>
       </c>
       <c r="C8">
         <f>'November 2017'!C33</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43070</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>43101</v>
       </c>
@@ -1667,40 +1679,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B7:B9)</f>
-        <v>1.5</v>
+        <v>20.81666666666667</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1715,25 +1727,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>A2+1</f>
         <v>43010</v>
@@ -1802,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43011</v>
@@ -1823,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f t="shared" si="3"/>
         <v>43012</v>
@@ -1844,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f t="shared" si="3"/>
         <v>43013</v>
@@ -1864,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <f t="shared" si="3"/>
         <v>43014</v>
@@ -1894,7 +1906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43015</v>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43016</v>
@@ -1938,7 +1950,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43017</v>
@@ -1959,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43018</v>
@@ -1980,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43019</v>
@@ -2001,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43020</v>
@@ -2022,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <f t="shared" si="3"/>
         <v>43021</v>
@@ -2035,14 +2047,27 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14" si="4">(E14-D14-F14)*24</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43022</v>
@@ -2064,7 +2089,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43023</v>
@@ -2086,7 +2111,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43024</v>
@@ -2108,7 +2133,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43025</v>
@@ -2129,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43026</v>
@@ -2150,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43027</v>
@@ -2171,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <f t="shared" si="3"/>
         <v>43028</v>
@@ -2184,14 +2209,25 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21" si="5">(E21-D21-F21)*24</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43029</v>
@@ -2213,7 +2249,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43030</v>
@@ -2235,7 +2271,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43031</v>
@@ -2256,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43032</v>
@@ -2277,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43033</v>
@@ -2298,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43034</v>
@@ -2319,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43035</v>
@@ -2332,15 +2368,19 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43036</v>
@@ -2362,7 +2402,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43037</v>
@@ -2384,7 +2424,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43038</v>
@@ -2405,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43039</v>
@@ -2418,16 +2458,22 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>2.7666666666666675</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2484,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -2449,16 +2495,16 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>1.5</v>
+        <v>13.766666666666669</v>
       </c>
       <c r="H34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:C32">
@@ -2466,7 +2512,7 @@
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G13 A22:G32 A21:D21 A15:G20 A14:D14">
+  <conditionalFormatting sqref="I14 I21 A2:G32">
     <cfRule type="expression" dxfId="45" priority="21">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
@@ -2532,25 +2578,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2576,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
@@ -2597,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43041</v>
@@ -2618,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A31" si="3">A3+1</f>
         <v>43042</v>
@@ -2639,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43043</v>
@@ -2661,7 +2707,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43044</v>
@@ -2683,7 +2729,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43045</v>
@@ -2696,15 +2742,22 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43046</v>
@@ -2717,15 +2770,22 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.7500000000000018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43047</v>
@@ -2746,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43048</v>
@@ -2767,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43049</v>
@@ -2788,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43050</v>
@@ -2810,7 +2870,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43051</v>
@@ -2832,7 +2892,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43052</v>
@@ -2853,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43053</v>
@@ -2874,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43054</v>
@@ -2895,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43055</v>
@@ -2916,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <f t="shared" si="3"/>
         <v>43056</v>
@@ -2936,7 +2996,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43057</v>
@@ -2958,7 +3018,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43058</v>
@@ -2980,7 +3040,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43059</v>
@@ -3001,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43060</v>
@@ -3022,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43061</v>
@@ -3043,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43062</v>
@@ -3064,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43063</v>
@@ -3085,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43064</v>
@@ -3107,7 +3167,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43065</v>
@@ -3129,7 +3189,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43066</v>
@@ -3150,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43067</v>
@@ -3171,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43068</v>
@@ -3192,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43069</v>
@@ -3213,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="15"/>
@@ -3223,7 +3283,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -3234,7 +3294,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +3305,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>0</v>
+        <v>7.0500000000000016</v>
       </c>
       <c r="H34" s="20"/>
     </row>
@@ -3317,25 +3377,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3422,7 @@
       </c>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
@@ -3383,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43071</v>
@@ -3405,7 +3465,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43072</v>
@@ -3427,7 +3487,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43073</v>
@@ -3448,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43074</v>
@@ -3469,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43075</v>
@@ -3490,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43076</v>
@@ -3511,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43077</v>
@@ -3532,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43078</v>
@@ -3554,7 +3614,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43079</v>
@@ -3576,7 +3636,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43080</v>
@@ -3597,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43081</v>
@@ -3618,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43082</v>
@@ -3639,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43083</v>
@@ -3660,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <f t="shared" si="3"/>
         <v>43084</v>
@@ -3680,7 +3740,7 @@
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43085</v>
@@ -3702,7 +3762,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43086</v>
@@ -3724,7 +3784,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43087</v>
@@ -3745,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43088</v>
@@ -3766,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43089</v>
@@ -3787,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43090</v>
@@ -3808,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43091</v>
@@ -3829,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43092</v>
@@ -3851,7 +3911,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43093</v>
@@ -3873,7 +3933,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43094</v>
@@ -3894,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43095</v>
@@ -3915,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43096</v>
@@ -3936,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43097</v>
@@ -3957,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43098</v>
@@ -3978,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43099</v>
@@ -4000,7 +4060,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43100</v>
@@ -4022,7 +4082,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4093,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -4121,25 +4181,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -4166,7 +4226,7 @@
       </c>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
@@ -4186,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43102</v>
@@ -4207,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43103</v>
@@ -4228,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43104</v>
@@ -4249,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43105</v>
@@ -4270,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43106</v>
@@ -4292,7 +4352,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43107</v>
@@ -4314,7 +4374,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43108</v>
@@ -4335,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43109</v>
@@ -4356,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43110</v>
@@ -4377,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43111</v>
@@ -4398,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <f t="shared" si="3"/>
         <v>43112</v>
@@ -4418,7 +4478,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43113</v>
@@ -4440,7 +4500,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43114</v>
@@ -4462,7 +4522,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43115</v>
@@ -4483,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43116</v>
@@ -4504,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43117</v>
@@ -4525,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43118</v>
@@ -4546,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <f t="shared" si="3"/>
         <v>43119</v>
@@ -4566,7 +4626,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43120</v>
@@ -4588,7 +4648,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43121</v>
@@ -4610,7 +4670,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43122</v>
@@ -4631,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43123</v>
@@ -4652,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43124</v>
@@ -4673,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43125</v>
@@ -4694,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43126</v>
@@ -4715,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43127</v>
@@ -4737,7 +4797,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43128</v>
@@ -4759,7 +4819,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43129</v>
@@ -4780,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43130</v>
@@ -4801,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43131</v>
@@ -4823,7 +4883,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +4894,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\DT_WS1718_02_StarCar\dokumentation\arbeitszeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Weiterentwicklung GUI</t>
+  </si>
+  <si>
+    <t>Verbleibend</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
     <dxf>
       <font>
         <sz val="12"/>
@@ -415,6 +418,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1358,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>3.9000000000000021</v>
+        <v>9.7666666666666693</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1372,11 +1389,20 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>87.316666666666606</v>
+        <v>93.183333333333266</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
         <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="28">
+        <f>C12-B12</f>
+        <v>59.816666666666734</v>
       </c>
     </row>
   </sheetData>
@@ -2169,62 +2195,62 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="42" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="43" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3077,52 +3103,52 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="30" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="31" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>WEEKDAY($A5,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>WEEKDAY($A6,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>WEEKDAY($A12,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>WEEKDAY($A19,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>WEEKDAY($A20,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>WEEKDAY($A26,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>WEEKDAY($A27,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3136,7 +3162,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3191,12 +3217,19 @@
         <f t="shared" ref="C2:C32" si="1">WEEKNUM(A2,2)</f>
         <v>49</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="7">
         <f t="shared" ref="G2:G15" si="2">(E2-D2-F2)*24</f>
-        <v>0</v>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3304,12 +3337,19 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="24">
+        <v>0.8125</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.92152777777777783</v>
+      </c>
       <c r="F7" s="24"/>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.616666666666668</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3866,7 +3906,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>3.9000000000000021</v>
+        <v>9.7666666666666693</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -3877,58 +3917,63 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="20" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="21" priority="3" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>WEEKDAY($A25,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>WEEKDAY($A31,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>WEEKDAY($A24,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>WEEKDAY($A11,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>WEEKDAY($A10,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>WEEKDAY($A4,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>WEEKDAY($A3,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.15972222222222199" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" tabRatio="933" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Verbleibend</t>
+  </si>
+  <si>
+    <t>Treffen mit Robert - Test Protokoll</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>9.7666666666666693</v>
+        <v>24.633333333333333</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>93.183333333333266</v>
+        <v>108.04999999999993</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1402,7 +1405,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>59.816666666666734</v>
+        <v>44.950000000000074</v>
       </c>
     </row>
   </sheetData>
@@ -3161,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3365,12 +3368,21 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="24">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3386,12 +3398,19 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="24">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.9902777777777777</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6166666666666671</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,12 +3470,19 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="27">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.25</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3906,7 +3932,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>9.7666666666666693</v>
+        <v>24.633333333333333</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -3971,7 +3997,7 @@
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H7:H9 H12">
     <cfRule type="expression" dxfId="10" priority="1">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Treffen mit Robert - Test Protokoll</t>
+  </si>
+  <si>
+    <t>Treffen mit Team &amp; Weiterentwicklung GUI</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>24.633333333333333</v>
+        <v>52.733333333333334</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1392,7 +1395,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>108.04999999999993</v>
+        <v>136.14999999999992</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1405,7 +1408,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>44.950000000000074</v>
+        <v>16.85000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3168,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3498,12 +3501,21 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="D13" s="24">
+        <v>0.4375</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.1875</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.9166666666666679</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3519,12 +3531,21 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="24">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.125</v>
+      </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,12 +3561,21 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.983333333333333</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3932,7 +3962,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>24.633333333333333</v>
+        <v>52.733333333333334</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -3997,7 +4027,7 @@
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9 H12">
+  <conditionalFormatting sqref="H7:H9 H12:H15">
     <cfRule type="expression" dxfId="10" priority="1">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>52.733333333333334</v>
+        <v>55.816666666666663</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>136.14999999999992</v>
+        <v>139.23333333333326</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>16.85000000000008</v>
+        <v>13.766666666666737</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3168,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3477,12 +3477,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E12" s="27">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F12" s="27"/>
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F12" s="27">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G12" s="28">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>33</v>
@@ -3962,7 +3964,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>52.733333333333334</v>
+        <v>55.816666666666663</v>
       </c>
       <c r="H34" s="39"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -167,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +288,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1364,7 +1371,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>55.816666666666663</v>
+        <v>62.75</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1395,7 +1402,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>139.23333333333326</v>
+        <v>146.1666666666666</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1408,7 +1415,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>13.766666666666737</v>
+        <v>6.8333333333333997</v>
       </c>
     </row>
   </sheetData>
@@ -3165,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3190,7 @@
     <col min="8" max="1025" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3217,7 @@
       </c>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
@@ -3231,14 +3238,14 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G15" si="2">(E2-D2-F2)*24</f>
+        <f t="shared" ref="G2:G16" si="2">(E2-D2-F2)*24</f>
         <v>3.2500000000000004</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A32" si="3">A2+1</f>
         <v>43071</v>
@@ -3260,7 +3267,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" si="3"/>
         <v>43072</v>
@@ -3288,7 +3295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="3"/>
         <v>43073</v>
@@ -3309,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="3"/>
         <v>43074</v>
@@ -3330,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="3"/>
         <v>43075</v>
@@ -3358,7 +3365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="3"/>
         <v>43076</v>
@@ -3388,7 +3395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>43077</v>
@@ -3416,7 +3423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="3"/>
         <v>43078</v>
@@ -3438,7 +3445,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="3"/>
         <v>43079</v>
@@ -3460,7 +3467,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="3"/>
         <v>43080</v>
@@ -3490,7 +3497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="3"/>
         <v>43081</v>
@@ -3520,7 +3527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="3"/>
         <v>43082</v>
@@ -3550,7 +3557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>43083</v>
@@ -3580,7 +3587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f t="shared" si="3"/>
         <v>43084</v>
@@ -3593,12 +3600,23 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="27">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3678,12 +3696,19 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.87222222222222223</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.9333333333333345</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3964,13 +3989,12 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>55.816666666666663</v>
+        <v>62.75</v>
       </c>
       <c r="H34" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D16:G16"/>
+  <mergeCells count="2">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
@@ -4035,7 +4059,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.15972222222222199" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -277,6 +277,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -288,7 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1314,11 +1314,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>62.75</v>
+        <v>68.333333333333329</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>146.1666666666666</v>
+        <v>151.74999999999994</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>6.8333333333333997</v>
+        <v>1.2500000000000568</v>
       </c>
     </row>
   </sheetData>
@@ -1761,12 +1761,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999836</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1921,12 +1921,12 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999845</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2175,10 +2175,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>3*Zusammenfassung!B1</f>
         <v>27</v>
@@ -2186,10 +2186,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3085,10 +3085,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -3096,10 +3096,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3611,12 +3611,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3724,12 +3724,19 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="24">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.97361111111111109</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.5833333333333321</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,10 +3975,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>4*Zusammenfassung!B1</f>
         <v>36</v>
@@ -3979,17 +3986,17 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>62.75</v>
+        <v>68.333333333333329</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -4355,12 +4362,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4503,12 +4510,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -4768,10 +4775,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -4779,10 +4786,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Treffen mit Team &amp; Weiterentwicklung GUI</t>
+  </si>
+  <si>
+    <t>Treffen Robert - Integration IBC und Weiterentwicklung GUI</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1374,7 @@
       </c>
       <c r="B9" s="7">
         <f>'Dezember 2017'!G34</f>
-        <v>68.333333333333329</v>
+        <v>78.933333333333337</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
@@ -1402,7 +1405,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B9)</f>
-        <v>151.74999999999994</v>
+        <v>162.34999999999994</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
@@ -1415,7 +1418,7 @@
       </c>
       <c r="C14" s="28">
         <f>C12-B12</f>
-        <v>1.2500000000000568</v>
+        <v>-9.3499999999999375</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3178,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3752,12 +3755,21 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F22" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3996,7 +4008,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>68.333333333333329</v>
+        <v>78.933333333333337</v>
       </c>
       <c r="H34" s="39"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" tabRatio="933" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" tabRatio="933" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Treffen Robert - Integration IBC und Weiterentwicklung GUI</t>
+  </si>
+  <si>
+    <t>Präsentation Vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>0</v>
+        <v>0.8333333333333357</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -3177,7 +3180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -4086,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4290,12 +4293,19 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="24">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.99652777777777779</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4808,7 +4818,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>0</v>
+        <v>0.8333333333333357</v>
       </c>
       <c r="H34" s="39"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Präsentation Vorbereiten</t>
+  </si>
+  <si>
+    <t>Test GUI - IBC</t>
   </si>
 </sst>
 </file>
@@ -299,21 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <sz val="12"/>
@@ -1390,7 +1379,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>0.8333333333333357</v>
+        <v>4.0000000000000036</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -2214,62 +2203,62 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="43" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="42" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3122,52 +3111,52 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="31" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="30" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>WEEKDAY($A5,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>WEEKDAY($A6,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>WEEKDAY($A12,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>WEEKDAY($A19,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>WEEKDAY($A20,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>WEEKDAY($A26,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>WEEKDAY($A27,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4021,62 +4010,62 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="21" priority="3" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="20" priority="3" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>WEEKDAY($A25,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>WEEKDAY($A31,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>WEEKDAY($A24,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>WEEKDAY($A11,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>WEEKDAY($A10,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>WEEKDAY($A4,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>WEEKDAY($A3,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 H12:H15">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4090,7 +4079,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4271,14 +4260,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="24">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>1.7500000000000018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -4304,7 +4299,7 @@
         <f t="shared" si="3"/>
         <v>0.8333333333333357</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4321,12 +4316,19 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="24">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4166666666666656</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,7 +4820,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>0.8333333333333357</v>
+        <v>4.0000000000000036</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -4830,13 +4832,8 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="9" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="8" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Weiterentwicklung GUI</t>
   </si>
   <si>
-    <t>Verbleibend</t>
-  </si>
-  <si>
     <t>Treffen mit Robert - Test Protokoll</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>Test GUI - IBC</t>
+  </si>
+  <si>
+    <t>Implementierung Backup-Protokoll</t>
+  </si>
+  <si>
+    <t>Integration &amp; Test Backup-Protokoll</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -228,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -298,25 +307,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <sz val="12"/>
@@ -1286,7 +1282,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1375,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>4.0000000000000036</v>
+        <v>24.766666666666669</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -1405,13 +1401,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="28">
-        <f>C12-B12</f>
-        <v>-9.3499999999999375</v>
-      </c>
+      <c r="C14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2203,62 +2193,62 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="42" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="41" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="36" priority="8">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3111,52 +3101,52 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="30" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="29" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>WEEKDAY($A5,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>WEEKDAY($A6,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>WEEKDAY($A12,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>WEEKDAY($A19,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>WEEKDAY($A20,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>WEEKDAY($A26,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>WEEKDAY($A27,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3489,7 +3479,7 @@
         <v>8.3333333333333321</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,7 +3569,7 @@
         <v>10.983333333333333</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3761,7 +3751,7 @@
         <v>10.600000000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4010,62 +4000,62 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="20" priority="3" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="19" priority="3" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>WEEKDAY($A25,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>WEEKDAY($A31,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>WEEKDAY($A24,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>WEEKDAY($A11,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>WEEKDAY($A10,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>WEEKDAY($A4,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>WEEKDAY($A3,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 H12:H15">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4079,7 +4069,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4262,7 @@
         <v>1.7500000000000018</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4300,7 +4290,7 @@
         <v>0.8333333333333357</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4328,7 +4318,7 @@
         <v>1.4166666666666656</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4406,14 +4396,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="27">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="7">
         <f t="shared" ref="G14:G19" si="4">(E14-D14-F14)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>7.25</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4428,14 +4424,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="27">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>9.1833333333333318</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -4450,12 +4452,19 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="24">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.3333333333333321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4820,7 +4829,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>4.0000000000000036</v>
+        <v>24.766666666666669</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -4832,23 +4841,18 @@
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="8" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="7" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>WEEKDAY($A14,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Integration &amp; Test Backup-Protokoll</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -296,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -307,7 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1305,11 +1308,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1375,7 +1378,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>24.766666666666669</v>
+        <v>27.233333333333334</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -1746,12 +1749,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999836</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1906,12 +1909,12 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999845</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2160,10 +2163,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33">
         <f>3*Zusammenfassung!B1</f>
         <v>27</v>
@@ -2171,10 +2174,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3070,10 +3073,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -3081,10 +3084,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3969,10 +3972,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33">
         <f>4*Zusammenfassung!B1</f>
         <v>36</v>
@@ -3980,10 +3983,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -4069,7 +4072,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4376,12 +4379,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4407,7 +4410,7 @@
         <f t="shared" ref="G14:G19" si="4">(E14-D14-F14)*24</f>
         <v>7.25</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4435,7 +4438,7 @@
         <f t="shared" si="4"/>
         <v>9.1833333333333318</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4480,12 +4483,19 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="24">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.90138888888888891</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4666666666666659</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4543,12 +4553,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -4808,10 +4818,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -4819,17 +4829,17 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>24.766666666666669</v>
+        <v>27.233333333333334</v>
       </c>
       <c r="H34" s="39"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>27.233333333333334</v>
+        <v>30.466666666666669</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -4072,7 +4072,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4511,12 +4511,19 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="27">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.97152777777777777</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2333333333333352</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4839,7 +4846,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>27.233333333333334</v>
+        <v>30.466666666666669</v>
       </c>
       <c r="H34" s="39"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -103,12 +103,6 @@
     <t>Erste Ergebnisvorstellung</t>
   </si>
   <si>
-    <t>Präsentation bzw. Vorträge</t>
-  </si>
-  <si>
-    <t>Vorführung der Ergebnisse</t>
-  </si>
-  <si>
     <t>Teamtreffen</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Vorführung</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,12 +201,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -311,6 +304,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1308,11 +1302,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1378,7 +1372,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>30.466666666666669</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -1749,12 +1743,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999836</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1909,12 +1903,12 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999845</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2163,10 +2157,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>3*Zusammenfassung!B1</f>
         <v>27</v>
@@ -2174,10 +2168,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2373,7 +2367,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,7 +2551,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,7 +2725,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2824,7 +2818,7 @@
         <v>5.0833333333333339</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2852,7 +2846,7 @@
         <v>3.8833333333333329</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,7 +2895,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2973,7 +2967,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,7 +2995,7 @@
         <v>6.0166666666666666</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,7 +3025,7 @@
         <v>5.1333333333333329</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3059,7 +3053,7 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,10 +3067,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -3084,10 +3078,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3230,7 +3224,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3280,7 +3274,7 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3350,7 +3344,7 @@
         <v>2.616666666666668</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3380,7 +3374,7 @@
         <v>5.9999999999999982</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3408,7 +3402,7 @@
         <v>3.6166666666666671</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3482,7 +3476,7 @@
         <v>8.3333333333333321</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3512,7 +3506,7 @@
         <v>8.9166666666666679</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3542,7 +3536,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3572,7 +3566,7 @@
         <v>10.983333333333333</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3690,7 @@
         <v>1.9333333333333345</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3724,7 +3718,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3754,7 +3748,7 @@
         <v>10.600000000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,10 +3966,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>4*Zusammenfassung!B1</f>
         <v>36</v>
@@ -3983,10 +3977,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -4069,10 +4063,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4087,7 +4081,7 @@
     <col min="8" max="1025" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4108,7 @@
       </c>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
@@ -4134,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A32" si="2">A2+1</f>
         <v>43102</v>
@@ -4151,11 +4145,11 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G12" si="3">(E3-D3-F3)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G13" si="3">(E3-D3-F3)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" si="2"/>
         <v>43103</v>
@@ -4176,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="2"/>
         <v>43104</v>
@@ -4197,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="2"/>
         <v>43105</v>
@@ -4218,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="2"/>
         <v>43106</v>
@@ -4240,7 +4234,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="2"/>
         <v>43107</v>
@@ -4265,10 +4259,10 @@
         <v>1.7500000000000018</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="2"/>
         <v>43108</v>
@@ -4293,10 +4287,10 @@
         <v>0.8333333333333357</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="2"/>
         <v>43109</v>
@@ -4321,10 +4315,10 @@
         <v>1.4166666666666656</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="2"/>
         <v>43110</v>
@@ -4345,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="2"/>
         <v>43111</v>
@@ -4366,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f t="shared" si="2"/>
         <v>43112</v>
@@ -4379,14 +4373,22 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="2"/>
         <v>43113</v>
@@ -4407,14 +4409,16 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:G19" si="4">(E14-D14-F14)*24</f>
+        <f t="shared" ref="G14:G20" si="4">(E14-D14-F14)*24</f>
         <v>7.25</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="2"/>
         <v>43114</v>
@@ -4438,11 +4442,13 @@
         <f t="shared" si="4"/>
         <v>9.1833333333333318</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="2"/>
         <v>43115</v>
@@ -4466,11 +4472,13 @@
         <f t="shared" si="4"/>
         <v>4.3333333333333321</v>
       </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="2"/>
         <v>43116</v>
@@ -4494,11 +4502,13 @@
         <f t="shared" si="4"/>
         <v>2.4666666666666659</v>
       </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="2"/>
         <v>43117</v>
@@ -4523,10 +4533,12 @@
         <v>3.2333333333333352</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="2"/>
         <v>43118</v>
@@ -4547,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f t="shared" si="2"/>
         <v>43119</v>
@@ -4560,14 +4572,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0.53125</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <f t="shared" si="4"/>
+        <v>2.7499999999999996</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="2"/>
         <v>43120</v>
@@ -4589,7 +4609,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="2"/>
         <v>43121</v>
@@ -4611,7 +4631,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="2"/>
         <v>43122</v>
@@ -4632,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="2"/>
         <v>43123</v>
@@ -4653,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="2"/>
         <v>43124</v>
@@ -4674,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="2"/>
         <v>43125</v>
@@ -4695,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="2"/>
         <v>43126</v>
@@ -4716,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="2"/>
         <v>43127</v>
@@ -4738,7 +4758,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="2"/>
         <v>43128</v>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="2"/>
         <v>43129</v>
@@ -4781,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="2"/>
         <v>43130</v>
@@ -4802,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <f t="shared" si="2"/>
         <v>43131</v>
@@ -4825,10 +4845,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -4836,24 +4856,22 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>30.466666666666669</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="H34" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D20:G20"/>
+  <mergeCells count="2">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
@@ -4865,11 +4883,6 @@
   <conditionalFormatting sqref="H7">
     <cfRule type="expression" dxfId="6" priority="5">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>WEEKDAY($A14,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
@@ -4898,6 +4911,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.15972222222222199" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_bof31844.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>Arbeitszeit je Woche:</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Projektbeschreibung / Terminplan</t>
-  </si>
-  <si>
-    <t>Recherche Serielle Kommunikation PI/Arduino</t>
   </si>
   <si>
     <t>Sollstunden:</t>
@@ -144,6 +141,9 @@
   <si>
     <t>Vorführung</t>
   </si>
+  <si>
+    <t>Recherche Serielle Kommunikation Pi/Arduino</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +154,7 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -184,6 +184,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -293,18 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1302,11 +1305,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="B10" s="7">
         <f>'Januar 2018'!G34</f>
-        <v>36.466666666666669</v>
+        <v>41.466666666666669</v>
       </c>
       <c r="C10" s="8">
         <f>'Januar 2018'!C33</f>
@@ -1411,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1431,7 @@
     <col min="8" max="1025" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
@@ -1476,7 +1479,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f t="shared" ref="A3:A32" si="2">A2+1</f>
         <v>43010</v>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f t="shared" si="2"/>
         <v>43011</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f t="shared" si="2"/>
         <v>43012</v>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" si="2"/>
         <v>43013</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f t="shared" si="2"/>
         <v>43014</v>
@@ -1585,11 +1588,11 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="2"/>
         <v>43015</v>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="2"/>
         <v>43016</v>
@@ -1633,7 +1636,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="2"/>
         <v>43017</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="2"/>
         <v>43018</v>
@@ -1675,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="2"/>
         <v>43019</v>
@@ -1696,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="2"/>
         <v>43020</v>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f t="shared" si="2"/>
         <v>43021</v>
@@ -1743,14 +1746,14 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999836</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="H14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="2"/>
         <v>43022</v>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="2"/>
         <v>43023</v>
@@ -1794,7 +1797,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="2"/>
         <v>43024</v>
@@ -1816,7 +1819,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="2"/>
         <v>43025</v>
@@ -1837,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="2"/>
         <v>43026</v>
@@ -1858,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="2"/>
         <v>43027</v>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f t="shared" si="2"/>
         <v>43028</v>
@@ -1903,14 +1906,14 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999845</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="2"/>
         <v>43029</v>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="2"/>
         <v>43030</v>
@@ -1954,7 +1957,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="2"/>
         <v>43031</v>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="2"/>
         <v>43032</v>
@@ -1996,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="2"/>
         <v>43033</v>
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="2"/>
         <v>43034</v>
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="2"/>
         <v>43035</v>
@@ -2062,8 +2065,11 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999845</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="2"/>
         <v>43036</v>
@@ -2085,7 +2091,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="2"/>
         <v>43037</v>
@@ -2107,7 +2113,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="2"/>
         <v>43038</v>
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <f t="shared" si="2"/>
         <v>43039</v>
@@ -2153,14 +2159,14 @@
         <v>2.7666666666666728</v>
       </c>
       <c r="H32" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="48"/>
       <c r="C33">
         <f>3*Zusammenfassung!B1</f>
         <v>27</v>
@@ -2168,10 +2174,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="50"/>
+      <c r="A34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2183,74 +2189,77 @@
       <c r="H34" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I21:L21"/>
+  <mergeCells count="2">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="41" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="41" priority="3" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="30" priority="15">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>WEEKDAY($A28,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.15972222222222199" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2259,7 +2268,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2376,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2439,7 +2448,7 @@
         <v>5.3000000000000158</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2476,7 @@
         <v>1.7499999999999858</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2495,7 +2504,7 @@
         <v>7.7833333333333279</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,7 +2532,7 @@
         <v>3.05</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,7 +2560,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,7 +2678,7 @@
         <v>3.5333333333333328</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,7 +2706,7 @@
         <v>5.7500000000000009</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2734,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,7 +2827,7 @@
         <v>5.0833333333333339</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,7 +2855,7 @@
         <v>3.8833333333333329</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,7 +2904,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2976,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2995,7 +3004,7 @@
         <v>6.0166666666666666</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,7 +3034,7 @@
         <v>5.1333333333333329</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,7 +3062,7 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,10 +3076,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="49"/>
+      <c r="A33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="48"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -3078,10 +3087,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="50"/>
+      <c r="A34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3157,7 +3166,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3233,7 @@
         <v>3.2500000000000004</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3274,7 +3283,7 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3344,7 +3353,7 @@
         <v>2.616666666666668</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3374,7 +3383,7 @@
         <v>5.9999999999999982</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3402,7 +3411,7 @@
         <v>3.6166666666666671</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3476,7 +3485,7 @@
         <v>8.3333333333333321</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3506,7 +3515,7 @@
         <v>8.9166666666666679</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3536,7 +3545,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3566,7 +3575,7 @@
         <v>10.983333333333333</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
@@ -3690,7 +3699,7 @@
         <v>1.9333333333333345</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3718,7 +3727,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,7 +3757,7 @@
         <v>10.600000000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3966,10 +3975,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="49"/>
+      <c r="A33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="48"/>
       <c r="C33">
         <f>4*Zusammenfassung!B1</f>
         <v>36</v>
@@ -3977,10 +3986,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="50"/>
+      <c r="A34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -4066,7 +4075,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4259,7 +4268,7 @@
         <v>1.7500000000000018</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,7 +4296,7 @@
         <v>0.8333333333333357</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4315,7 +4324,7 @@
         <v>1.4166666666666656</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4384,8 +4393,8 @@
         <f t="shared" si="3"/>
         <v>3.2500000000000004</v>
       </c>
-      <c r="H13" s="51" t="s">
-        <v>38</v>
+      <c r="H13" s="46" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4413,7 +4422,7 @@
         <v>7.25</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -4443,7 +4452,7 @@
         <v>9.1833333333333318</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -4473,7 +4482,7 @@
         <v>4.3333333333333321</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -4503,7 +4512,7 @@
         <v>2.4666666666666659</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -4533,7 +4542,7 @@
         <v>3.2333333333333352</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
@@ -4583,8 +4592,8 @@
         <f t="shared" si="4"/>
         <v>2.7499999999999996</v>
       </c>
-      <c r="H20" s="51" t="s">
-        <v>39</v>
+      <c r="H20" s="46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4600,14 +4609,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="7">
         <f t="shared" ref="G21:G32" si="5">(E21-D21-F21)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>2.25</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -4622,14 +4637,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="27">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F22" s="27"/>
       <c r="G22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7"/>
+        <v>2.7499999999999982</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -4845,10 +4866,10 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="49"/>
+      <c r="A33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="48"/>
       <c r="C33">
         <f>5*Zusammenfassung!B1</f>
         <v>45</v>
@@ -4856,17 +4877,17 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="50"/>
+      <c r="A34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="39">
         <f>SUM(G2:G32)</f>
-        <v>36.466666666666669</v>
+        <v>41.466666666666669</v>
       </c>
       <c r="H34" s="39"/>
     </row>
@@ -4885,28 +4906,18 @@
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>WEEKDAY($A21,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>WEEKDAY($A22,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>WEEKDAY($A28,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
